--- a/src/XMLList-Extended.xlsx
+++ b/src/XMLList-Extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolachiara/VSCODE/xml-test01/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67ABD7-2B94-DB48-A4A2-817287BBFECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5971C8-D88A-0C46-A8B0-DE36F4F61EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="800" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35840" yWindow="1300" windowWidth="37760" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with formula" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="Y2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="Z2" t="str">
         <f>_xlfn.CONCAT(E2, "/ ", "2025")</f>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="AB2">
         <f ca="1">AO2</f>
-        <v>1830</v>
+        <v>1220</v>
       </c>
       <c r="AC2">
         <f>E2</f>
@@ -1213,14 +1213,14 @@
       </c>
       <c r="AE2">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2">
         <v>500</v>
       </c>
       <c r="AG2">
         <f ca="1">AE2*AF2</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
         <v>22</v>
@@ -1231,11 +1231,11 @@
       </c>
       <c r="AJ2">
         <f ca="1">AG2</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="AK2">
         <f ca="1">AJ2*AI2%</f>
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="AL2" t="s">
         <v>182</v>
@@ -1245,11 +1245,11 @@
       </c>
       <c r="AN2" s="3">
         <f ca="1">TODAY()+60</f>
-        <v>45787</v>
+        <v>45788</v>
       </c>
       <c r="AO2">
         <f ca="1">AJ2+AK2</f>
-        <v>1830</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -1283,27 +1283,27 @@
         <v>3377699947</v>
       </c>
       <c r="J3" t="str">
-        <f>J2</f>
+        <f t="shared" ref="J3:O3" si="1">J2</f>
         <v>Innova13 Systems</v>
       </c>
       <c r="K3" t="str">
-        <f>K2</f>
+        <f t="shared" si="1"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L3" t="str">
-        <f>L2</f>
+        <f t="shared" si="1"/>
         <v>20121</v>
       </c>
       <c r="M3" t="str">
-        <f>M2</f>
+        <f t="shared" si="1"/>
         <v>Milano</v>
       </c>
       <c r="N3" t="str">
-        <f>N2</f>
+        <f t="shared" si="1"/>
         <v>MI</v>
       </c>
       <c r="O3" t="str">
-        <f>O2</f>
+        <f t="shared" si="1"/>
         <v>IT</v>
       </c>
       <c r="P3" t="s">
@@ -1335,52 +1335,52 @@
         <v>39</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y51" ca="1" si="1">TODAY()</f>
-        <v>45727</v>
+        <f t="shared" ref="Y3:Y51" ca="1" si="2">TODAY()</f>
+        <v>45728</v>
       </c>
       <c r="Z3" t="str">
-        <f t="shared" ref="Z3:Z50" si="2">_xlfn.CONCAT(E3, "/ ", "2025")</f>
+        <f t="shared" ref="Z3:Z50" si="3">_xlfn.CONCAT(E3, "/ ", "2025")</f>
         <v>101/ 2025</v>
       </c>
       <c r="AA3" t="s">
         <v>180</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB50" ca="1" si="3">AO3</f>
-        <v>1220</v>
+        <f t="shared" ref="AB3:AB50" ca="1" si="4">AO3</f>
+        <v>2440</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC50" si="4">E3</f>
+        <f t="shared" ref="AC3:AC50" si="5">E3</f>
         <v>101</v>
       </c>
       <c r="AD3" t="s">
         <v>181</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE51" ca="1" si="5">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <f t="shared" ref="AE3:AE51" ca="1" si="6">RANDBETWEEN(1, 5)</f>
+        <v>4</v>
       </c>
       <c r="AF3">
         <v>500</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG50" ca="1" si="6">AE3*AF3</f>
-        <v>1000</v>
+        <f t="shared" ref="AG3:AG50" ca="1" si="7">AE3*AF3</f>
+        <v>2000</v>
       </c>
       <c r="AH3">
         <v>22</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI51" si="7">AH3</f>
+        <f t="shared" ref="AI3:AI51" si="8">AH3</f>
         <v>22</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ50" ca="1" si="8">AG3</f>
-        <v>1000</v>
+        <f t="shared" ref="AJ3:AJ50" ca="1" si="9">AG3</f>
+        <v>2000</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK50" ca="1" si="9">AJ3*AI3%</f>
-        <v>220</v>
+        <f t="shared" ref="AK3:AK50" ca="1" si="10">AJ3*AI3%</f>
+        <v>440</v>
       </c>
       <c r="AL3" t="s">
         <v>182</v>
@@ -1389,12 +1389,12 @@
         <v>183</v>
       </c>
       <c r="AN3" s="3">
-        <f t="shared" ref="AN3:AN51" ca="1" si="10">TODAY()+60</f>
-        <v>45787</v>
+        <f t="shared" ref="AN3:AN51" ca="1" si="11">TODAY()+60</f>
+        <v>45788</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO50" ca="1" si="11">AJ3+AK3</f>
-        <v>1220</v>
+        <f t="shared" ref="AO3:AO50" ca="1" si="12">AJ3+AK3</f>
+        <v>2440</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>47</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="12">E3+1</f>
+        <f t="shared" ref="E4:E11" si="13">E3+1</f>
         <v>102</v>
       </c>
       <c r="F4" t="s">
@@ -1428,34 +1428,34 @@
         <v>3377699947</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J11" si="13">J3</f>
+        <f t="shared" ref="J4:J11" si="14">J3</f>
         <v>Innova13 Systems</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K11" si="14">K3</f>
+        <f t="shared" ref="K4:K11" si="15">K3</f>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L11" si="15">L3</f>
+        <f t="shared" ref="L4:L11" si="16">L3</f>
         <v>20121</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M11" si="16">M3</f>
+        <f t="shared" ref="M4:M11" si="17">M3</f>
         <v>Milano</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N11" si="17">N3</f>
+        <f t="shared" ref="N4:N11" si="18">N3</f>
         <v>MI</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O11" si="18">O3</f>
+        <f t="shared" ref="O4:O11" si="19">O3</f>
         <v>IT</v>
       </c>
       <c r="P4" t="s">
         <v>83</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q50" si="19">Q3</f>
+        <f t="shared" ref="Q4:Q50" si="20">Q3</f>
         <v>Hosting Company</v>
       </c>
       <c r="R4" t="s">
@@ -1480,51 +1480,51 @@
         <v>39</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102/ 2025</v>
       </c>
       <c r="AA4" t="s">
         <v>180</v>
       </c>
       <c r="AB4">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1830</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="AD4" t="s">
         <v>181</v>
       </c>
       <c r="AE4">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="AF4">
         <v>500</v>
       </c>
       <c r="AG4">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1500</v>
       </c>
       <c r="AH4">
         <v>22</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1500</v>
       </c>
       <c r="AK4">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>330</v>
       </c>
       <c r="AL4" t="s">
@@ -1534,11 +1534,11 @@
         <v>183</v>
       </c>
       <c r="AN4" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO4">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1830</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>47</v>
       </c>
       <c r="E5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>103</v>
       </c>
       <c r="F5" t="s">
@@ -1573,34 +1573,34 @@
         <v>3377699947</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P5" t="s">
         <v>83</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R5" t="s">
@@ -1625,52 +1625,52 @@
         <v>39</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103/ 2025</v>
       </c>
       <c r="AA5" t="s">
         <v>180</v>
       </c>
       <c r="AB5">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="AD5" t="s">
         <v>181</v>
       </c>
       <c r="AE5">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>500</v>
       </c>
       <c r="AG5">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH5">
         <v>22</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK5">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL5" t="s">
         <v>182</v>
@@ -1679,12 +1679,12 @@
         <v>183</v>
       </c>
       <c r="AN5" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO5">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
@@ -1701,7 +1701,7 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>104</v>
       </c>
       <c r="F6" t="s">
@@ -1718,34 +1718,34 @@
         <v>3377699947</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P6" t="s">
         <v>83</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R6" t="s">
@@ -1770,52 +1770,52 @@
         <v>39</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104/ 2025</v>
       </c>
       <c r="AA6" t="s">
         <v>180</v>
       </c>
       <c r="AB6">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="AD6" t="s">
         <v>181</v>
       </c>
       <c r="AE6">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF6">
         <v>500</v>
       </c>
       <c r="AG6">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH6">
         <v>22</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ6">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK6">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL6" t="s">
         <v>182</v>
@@ -1824,12 +1824,12 @@
         <v>183</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO6">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>47</v>
       </c>
       <c r="E7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="F7" t="s">
@@ -1863,34 +1863,34 @@
         <v>3377699947</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P7" t="s">
         <v>83</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R7" t="s">
@@ -1915,52 +1915,52 @@
         <v>39</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105/ 2025</v>
       </c>
       <c r="AA7" t="s">
         <v>180</v>
       </c>
       <c r="AB7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="AD7" t="s">
         <v>181</v>
       </c>
       <c r="AE7">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>500</v>
       </c>
       <c r="AG7">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH7">
         <v>22</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ7">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK7">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL7" t="s">
         <v>182</v>
@@ -1969,12 +1969,12 @@
         <v>183</v>
       </c>
       <c r="AN7" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO7">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
@@ -1988,7 +1988,7 @@
         <v>47</v>
       </c>
       <c r="E8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>106</v>
       </c>
       <c r="F8" t="s">
@@ -2005,34 +2005,34 @@
         <v>3377699947</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R8" t="s">
@@ -2057,51 +2057,51 @@
         <v>39</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106/ 2025</v>
       </c>
       <c r="AA8" t="s">
         <v>180</v>
       </c>
       <c r="AB8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1220</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="AD8" t="s">
         <v>181</v>
       </c>
       <c r="AE8">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="AF8">
         <v>500</v>
       </c>
       <c r="AG8">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1000</v>
       </c>
       <c r="AH8">
         <v>22</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ8">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1000</v>
       </c>
       <c r="AK8">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>220</v>
       </c>
       <c r="AL8" t="s">
@@ -2111,11 +2111,11 @@
         <v>183</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO8">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1220</v>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
         <v>47</v>
       </c>
       <c r="E9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
       <c r="F9" t="s">
@@ -2147,34 +2147,34 @@
         <v>3377699947</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P9" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R9" t="s">
@@ -2199,52 +2199,52 @@
         <v>39</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107/ 2025</v>
       </c>
       <c r="AA9" t="s">
         <v>180</v>
       </c>
       <c r="AB9">
-        <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="AD9" t="s">
         <v>181</v>
       </c>
       <c r="AE9">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>500</v>
       </c>
       <c r="AG9">
-        <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH9">
         <v>22</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK9">
-        <f t="shared" ca="1" si="9"/>
-        <v>440</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL9" t="s">
         <v>182</v>
@@ -2253,12 +2253,12 @@
         <v>183</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO9">
-        <f t="shared" ca="1" si="11"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
@@ -2272,7 +2272,7 @@
         <v>47</v>
       </c>
       <c r="E10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="F10" t="s">
@@ -2289,34 +2289,34 @@
         <v>3377699947</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P10" t="s">
         <v>83</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R10" t="s">
@@ -2341,52 +2341,52 @@
         <v>39</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108/ 2025</v>
       </c>
       <c r="AA10" t="s">
         <v>180</v>
       </c>
       <c r="AB10">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="AD10" t="s">
         <v>181</v>
       </c>
       <c r="AE10">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>500</v>
       </c>
       <c r="AG10">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH10">
         <v>22</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ10">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK10">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL10" t="s">
         <v>182</v>
@@ -2395,12 +2395,12 @@
         <v>183</v>
       </c>
       <c r="AN10" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO10">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>47</v>
       </c>
       <c r="E11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>109</v>
       </c>
       <c r="F11" t="s">
@@ -2431,34 +2431,34 @@
         <v>3377699947</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Innova13 Systems</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Via Garibaldi 42</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20121</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Milano</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>MI</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>IT</v>
       </c>
       <c r="P11" t="s">
         <v>83</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R11" t="s">
@@ -2483,51 +2483,51 @@
         <v>39</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109/ 2025</v>
       </c>
       <c r="AA11" t="s">
         <v>180</v>
       </c>
       <c r="AB11">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1830</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="AD11" t="s">
         <v>181</v>
       </c>
       <c r="AE11">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="AF11">
         <v>500</v>
       </c>
       <c r="AG11">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1500</v>
       </c>
       <c r="AH11">
         <v>22</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ11">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1500</v>
       </c>
       <c r="AK11">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>330</v>
       </c>
       <c r="AL11" t="s">
@@ -2537,11 +2537,11 @@
         <v>183</v>
       </c>
       <c r="AN11" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO11">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1830</v>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>84</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R12" t="s">
@@ -2616,52 +2616,52 @@
         <v>39</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200/ 2025</v>
       </c>
       <c r="AA12" t="s">
         <v>180</v>
       </c>
       <c r="AB12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="AD12" t="s">
         <v>181</v>
       </c>
       <c r="AE12">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF12">
         <v>500</v>
       </c>
       <c r="AG12">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH12">
         <v>22</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ12">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK12">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL12" t="s">
         <v>182</v>
@@ -2670,12 +2670,12 @@
         <v>183</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO12">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
@@ -2703,34 +2703,34 @@
         <v>4607311286</v>
       </c>
       <c r="J13" t="str">
-        <f>J12</f>
+        <f t="shared" ref="J13:O13" si="21">J12</f>
         <v>Bright79 Media</v>
       </c>
       <c r="K13" t="str">
-        <f>K12</f>
+        <f t="shared" si="21"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L13" t="str">
-        <f>L12</f>
+        <f t="shared" si="21"/>
         <v>90144</v>
       </c>
       <c r="M13" t="str">
-        <f>M12</f>
+        <f t="shared" si="21"/>
         <v>Palermo</v>
       </c>
       <c r="N13" t="str">
-        <f>N12</f>
+        <f t="shared" si="21"/>
         <v>Pa</v>
       </c>
       <c r="O13" t="str">
-        <f>O12</f>
+        <f t="shared" si="21"/>
         <v>IT</v>
       </c>
       <c r="P13" t="s">
         <v>85</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R13" t="s">
@@ -2755,52 +2755,52 @@
         <v>39</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201/ 2025</v>
       </c>
       <c r="AA13" t="s">
         <v>180</v>
       </c>
       <c r="AB13">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
       <c r="AD13" t="s">
         <v>181</v>
       </c>
       <c r="AE13">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF13">
         <v>500</v>
       </c>
       <c r="AG13">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH13">
         <v>22</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ13">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK13">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL13" t="s">
         <v>182</v>
@@ -2809,12 +2809,12 @@
         <v>183</v>
       </c>
       <c r="AN13" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO13">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
         <v>48</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E21" si="20">E13+1</f>
+        <f t="shared" ref="E14:E21" si="22">E13+1</f>
         <v>202</v>
       </c>
       <c r="F14" t="s">
@@ -2842,34 +2842,34 @@
         <v>4607311286</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ref="J14:J21" si="21">J13</f>
+        <f t="shared" ref="J14:J21" si="23">J13</f>
         <v>Bright79 Media</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ref="K14:K21" si="22">K13</f>
+        <f t="shared" ref="K14:K21" si="24">K13</f>
         <v>Via  Roma  15</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L21" si="23">L13</f>
+        <f t="shared" ref="L14:L21" si="25">L13</f>
         <v>90144</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M21" si="24">M13</f>
+        <f t="shared" ref="M14:M21" si="26">M13</f>
         <v>Palermo</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" ref="N14:N21" si="25">N13</f>
+        <f t="shared" ref="N14:N21" si="27">N13</f>
         <v>Pa</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" ref="O14:O21" si="26">O13</f>
+        <f t="shared" ref="O14:O21" si="28">O13</f>
         <v>IT</v>
       </c>
       <c r="P14" t="s">
         <v>86</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R14" t="s">
@@ -2894,52 +2894,52 @@
         <v>39</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202/ 2025</v>
       </c>
       <c r="AA14" t="s">
         <v>180</v>
       </c>
       <c r="AB14">
-        <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>202</v>
       </c>
       <c r="AD14" t="s">
         <v>181</v>
       </c>
       <c r="AE14">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF14">
         <v>500</v>
       </c>
       <c r="AG14">
-        <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH14">
         <v>22</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ14">
-        <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK14">
-        <f t="shared" ca="1" si="9"/>
-        <v>440</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL14" t="s">
         <v>182</v>
@@ -2948,12 +2948,12 @@
         <v>183</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO14">
-        <f t="shared" ca="1" si="11"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>203</v>
       </c>
       <c r="F15" t="s">
@@ -2981,34 +2981,34 @@
         <v>4607311286</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P15" t="s">
         <v>87</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R15" t="s">
@@ -3033,52 +3033,52 @@
         <v>39</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>203/ 2025</v>
       </c>
       <c r="AA15" t="s">
         <v>180</v>
       </c>
       <c r="AB15">
-        <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="AD15" t="s">
         <v>181</v>
       </c>
       <c r="AE15">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF15">
         <v>500</v>
       </c>
       <c r="AG15">
-        <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH15">
         <v>22</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ15">
-        <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK15">
-        <f t="shared" ca="1" si="9"/>
-        <v>440</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL15" t="s">
         <v>182</v>
@@ -3087,12 +3087,12 @@
         <v>183</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO15">
-        <f t="shared" ca="1" si="11"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
@@ -3103,7 +3103,7 @@
         <v>48</v>
       </c>
       <c r="E16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>204</v>
       </c>
       <c r="F16" t="s">
@@ -3120,34 +3120,34 @@
         <v>4607311286</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P16" t="s">
         <v>88</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R16" t="s">
@@ -3172,52 +3172,52 @@
         <v>39</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204/ 2025</v>
       </c>
       <c r="AA16" t="s">
         <v>180</v>
       </c>
       <c r="AB16">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="AD16" t="s">
         <v>181</v>
       </c>
       <c r="AE16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF16">
         <v>500</v>
       </c>
       <c r="AG16">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH16">
         <v>22</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ16">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK16">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL16" t="s">
         <v>182</v>
@@ -3226,12 +3226,12 @@
         <v>183</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO16">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="17" spans="3:41" x14ac:dyDescent="0.2">
@@ -3242,7 +3242,7 @@
         <v>48</v>
       </c>
       <c r="E17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>205</v>
       </c>
       <c r="F17" t="s">
@@ -3259,34 +3259,34 @@
         <v>4607311286</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P17" t="s">
         <v>89</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R17" t="s">
@@ -3311,52 +3311,52 @@
         <v>39</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>205/ 2025</v>
       </c>
       <c r="AA17" t="s">
         <v>180</v>
       </c>
       <c r="AB17">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="AD17" t="s">
         <v>181</v>
       </c>
       <c r="AE17">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>500</v>
       </c>
       <c r="AG17">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH17">
         <v>22</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ17">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK17">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL17" t="s">
         <v>182</v>
@@ -3365,12 +3365,12 @@
         <v>183</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO17">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="3:41" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>206</v>
       </c>
       <c r="F18" t="s">
@@ -3398,34 +3398,34 @@
         <v>4607311286</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P18" t="s">
         <v>90</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R18" t="s">
@@ -3450,52 +3450,52 @@
         <v>39</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>206/ 2025</v>
       </c>
       <c r="AA18" t="s">
         <v>180</v>
       </c>
       <c r="AB18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>206</v>
       </c>
       <c r="AD18" t="s">
         <v>181</v>
       </c>
       <c r="AE18">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF18">
         <v>500</v>
       </c>
       <c r="AG18">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH18">
         <v>22</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ18">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK18">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL18" t="s">
         <v>182</v>
@@ -3504,12 +3504,12 @@
         <v>183</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO18">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="19" spans="3:41" x14ac:dyDescent="0.2">
@@ -3520,7 +3520,7 @@
         <v>48</v>
       </c>
       <c r="E19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>207</v>
       </c>
       <c r="F19" t="s">
@@ -3537,34 +3537,34 @@
         <v>4607311286</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P19" t="s">
         <v>91</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R19" t="s">
@@ -3589,52 +3589,52 @@
         <v>39</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>207/ 2025</v>
       </c>
       <c r="AA19" t="s">
         <v>180</v>
       </c>
       <c r="AB19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="AD19" t="s">
         <v>181</v>
       </c>
       <c r="AE19">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>500</v>
       </c>
       <c r="AG19">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH19">
         <v>22</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ19">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK19">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL19" t="s">
         <v>182</v>
@@ -3643,12 +3643,12 @@
         <v>183</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO19">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="3:41" x14ac:dyDescent="0.2">
@@ -3659,7 +3659,7 @@
         <v>48</v>
       </c>
       <c r="E20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>208</v>
       </c>
       <c r="F20" t="s">
@@ -3676,34 +3676,34 @@
         <v>4607311286</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P20" t="s">
         <v>92</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R20" t="s">
@@ -3728,52 +3728,52 @@
         <v>39</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208/ 2025</v>
       </c>
       <c r="AA20" t="s">
         <v>180</v>
       </c>
       <c r="AB20">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>208</v>
       </c>
       <c r="AD20" t="s">
         <v>181</v>
       </c>
       <c r="AE20">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF20">
         <v>500</v>
       </c>
       <c r="AG20">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH20">
         <v>22</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ20">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK20">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL20" t="s">
         <v>182</v>
@@ -3782,12 +3782,12 @@
         <v>183</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO20">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="21" spans="3:41" x14ac:dyDescent="0.2">
@@ -3798,7 +3798,7 @@
         <v>48</v>
       </c>
       <c r="E21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>209</v>
       </c>
       <c r="F21" t="s">
@@ -3815,34 +3815,34 @@
         <v>4607311286</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Bright79 Media</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>Via  Roma  15</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>90144</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Palermo</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>Pa</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>IT</v>
       </c>
       <c r="P21" t="s">
         <v>93</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R21" t="s">
@@ -3867,52 +3867,52 @@
         <v>39</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>209/ 2025</v>
       </c>
       <c r="AA21" t="s">
         <v>180</v>
       </c>
       <c r="AB21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="AD21" t="s">
         <v>181</v>
       </c>
       <c r="AE21">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF21">
         <v>500</v>
       </c>
       <c r="AG21">
-        <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH21">
         <v>22</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ21">
-        <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK21">
-        <f t="shared" ca="1" si="9"/>
-        <v>440</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL21" t="s">
         <v>182</v>
@@ -3921,12 +3921,12 @@
         <v>183</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO21">
-        <f t="shared" ca="1" si="11"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="22" spans="3:41" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>94</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R22" t="s">
@@ -4000,51 +4000,51 @@
         <v>39</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300/ 2025</v>
       </c>
       <c r="AA22" t="s">
         <v>180</v>
       </c>
       <c r="AB22">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2440</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="AD22" t="s">
         <v>181</v>
       </c>
       <c r="AE22">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="AF22">
         <v>500</v>
       </c>
       <c r="AG22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2000</v>
       </c>
       <c r="AH22">
         <v>22</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2000</v>
       </c>
       <c r="AK22">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>440</v>
       </c>
       <c r="AL22" t="s">
@@ -4054,11 +4054,11 @@
         <v>183</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO22">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2440</v>
       </c>
     </row>
@@ -4087,34 +4087,34 @@
         <v>7399333144</v>
       </c>
       <c r="J23" t="str">
-        <f>J22</f>
+        <f t="shared" ref="J23:O23" si="29">J22</f>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K23" t="str">
-        <f>K22</f>
+        <f t="shared" si="29"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L23" t="str">
-        <f>L22</f>
+        <f t="shared" si="29"/>
         <v>50121</v>
       </c>
       <c r="M23" t="str">
-        <f>M22</f>
+        <f t="shared" si="29"/>
         <v>Firenze</v>
       </c>
       <c r="N23" t="str">
-        <f>N22</f>
+        <f t="shared" si="29"/>
         <v>Fi</v>
       </c>
       <c r="O23" t="str">
-        <f>O22</f>
+        <f t="shared" si="29"/>
         <v>IT</v>
       </c>
       <c r="P23" t="s">
         <v>95</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R23" t="s">
@@ -4139,52 +4139,52 @@
         <v>39</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>301/ 2025</v>
       </c>
       <c r="AA23" t="s">
         <v>180</v>
       </c>
       <c r="AB23">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>301</v>
       </c>
       <c r="AD23" t="s">
         <v>181</v>
       </c>
       <c r="AE23">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF23">
         <v>500</v>
       </c>
       <c r="AG23">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH23">
         <v>22</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK23">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL23" t="s">
         <v>182</v>
@@ -4193,12 +4193,12 @@
         <v>183</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO23">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>49</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:E31" si="27">E23+1</f>
+        <f t="shared" ref="E24:E31" si="30">E23+1</f>
         <v>302</v>
       </c>
       <c r="F24" t="s">
@@ -4226,34 +4226,34 @@
         <v>7399333144</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J31" si="28">J23</f>
+        <f t="shared" ref="J24:J31" si="31">J23</f>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ref="K24:K31" si="29">K23</f>
+        <f t="shared" ref="K24:K31" si="32">K23</f>
         <v>Corso Dante 88</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ref="L24:L31" si="30">L23</f>
+        <f t="shared" ref="L24:L31" si="33">L23</f>
         <v>50121</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ref="M24:M31" si="31">M23</f>
+        <f t="shared" ref="M24:M31" si="34">M23</f>
         <v>Firenze</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" ref="N24:N31" si="32">N23</f>
+        <f t="shared" ref="N24:N31" si="35">N23</f>
         <v>Fi</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" ref="O24:O32" si="33">O23</f>
+        <f t="shared" ref="O24:O32" si="36">O23</f>
         <v>IT</v>
       </c>
       <c r="P24" t="s">
         <v>96</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R24" t="s">
@@ -4278,52 +4278,52 @@
         <v>39</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302/ 2025</v>
       </c>
       <c r="AA24" t="s">
         <v>180</v>
       </c>
       <c r="AB24">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="AD24" t="s">
         <v>181</v>
       </c>
       <c r="AE24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF24">
         <v>500</v>
       </c>
       <c r="AG24">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH24">
         <v>22</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ24">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK24">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL24" t="s">
         <v>182</v>
@@ -4332,12 +4332,12 @@
         <v>183</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO24">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="25" spans="3:41" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>49</v>
       </c>
       <c r="E25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>303</v>
       </c>
       <c r="F25" t="s">
@@ -4365,34 +4365,34 @@
         <v>7399333144</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P25" t="s">
         <v>97</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R25" t="s">
@@ -4417,51 +4417,51 @@
         <v>39</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>303/ 2025</v>
       </c>
       <c r="AA25" t="s">
         <v>180</v>
       </c>
       <c r="AB25">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>610</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="AD25" t="s">
         <v>181</v>
       </c>
       <c r="AE25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="AF25">
         <v>500</v>
       </c>
       <c r="AG25">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>500</v>
       </c>
       <c r="AH25">
         <v>22</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ25">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>500</v>
       </c>
       <c r="AK25">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>110</v>
       </c>
       <c r="AL25" t="s">
@@ -4471,11 +4471,11 @@
         <v>183</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO25">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>610</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
         <v>49</v>
       </c>
       <c r="E26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>304</v>
       </c>
       <c r="F26" t="s">
@@ -4504,34 +4504,34 @@
         <v>7399333144</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P26" t="s">
         <v>98</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R26" t="s">
@@ -4556,52 +4556,52 @@
         <v>39</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>304/ 2025</v>
       </c>
       <c r="AA26" t="s">
         <v>180</v>
       </c>
       <c r="AB26">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="AD26" t="s">
         <v>181</v>
       </c>
       <c r="AE26">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF26">
         <v>500</v>
       </c>
       <c r="AG26">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH26">
         <v>22</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ26">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK26">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL26" t="s">
         <v>182</v>
@@ -4610,12 +4610,12 @@
         <v>183</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO26">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="27" spans="3:41" x14ac:dyDescent="0.2">
@@ -4626,7 +4626,7 @@
         <v>49</v>
       </c>
       <c r="E27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>305</v>
       </c>
       <c r="F27" t="s">
@@ -4643,34 +4643,34 @@
         <v>7399333144</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P27" t="s">
         <v>99</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R27" t="s">
@@ -4695,52 +4695,52 @@
         <v>39</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>305/ 2025</v>
       </c>
       <c r="AA27" t="s">
         <v>180</v>
       </c>
       <c r="AB27">
-        <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="AD27" t="s">
         <v>181</v>
       </c>
       <c r="AE27">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>500</v>
       </c>
       <c r="AG27">
-        <f t="shared" ca="1" si="6"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH27">
         <v>22</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ27">
-        <f t="shared" ca="1" si="8"/>
-        <v>2000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK27">
-        <f t="shared" ca="1" si="9"/>
-        <v>440</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL27" t="s">
         <v>182</v>
@@ -4749,12 +4749,12 @@
         <v>183</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO27">
-        <f t="shared" ca="1" si="11"/>
-        <v>2440</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="3:41" x14ac:dyDescent="0.2">
@@ -4765,7 +4765,7 @@
         <v>49</v>
       </c>
       <c r="E28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>306</v>
       </c>
       <c r="F28" t="s">
@@ -4782,34 +4782,34 @@
         <v>7399333144</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P28" t="s">
         <v>100</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R28" t="s">
@@ -4834,52 +4834,52 @@
         <v>39</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306/ 2025</v>
       </c>
       <c r="AA28" t="s">
         <v>180</v>
       </c>
       <c r="AB28">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="AD28" t="s">
         <v>181</v>
       </c>
       <c r="AE28">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF28">
         <v>500</v>
       </c>
       <c r="AG28">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH28">
         <v>22</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ28">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK28">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL28" t="s">
         <v>182</v>
@@ -4888,12 +4888,12 @@
         <v>183</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO28">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="29" spans="3:41" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
         <v>49</v>
       </c>
       <c r="E29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>307</v>
       </c>
       <c r="F29" t="s">
@@ -4921,34 +4921,34 @@
         <v>7399333144</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P29" t="s">
         <v>101</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R29" t="s">
@@ -4973,52 +4973,52 @@
         <v>39</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307/ 2025</v>
       </c>
       <c r="AA29" t="s">
         <v>180</v>
       </c>
       <c r="AB29">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="AD29" t="s">
         <v>181</v>
       </c>
       <c r="AE29">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF29">
         <v>500</v>
       </c>
       <c r="AG29">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH29">
         <v>22</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ29">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK29">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL29" t="s">
         <v>182</v>
@@ -5027,12 +5027,12 @@
         <v>183</v>
       </c>
       <c r="AN29" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO29">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="30" spans="3:41" x14ac:dyDescent="0.2">
@@ -5043,7 +5043,7 @@
         <v>49</v>
       </c>
       <c r="E30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>308</v>
       </c>
       <c r="F30" t="s">
@@ -5060,34 +5060,34 @@
         <v>7399333144</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P30" t="s">
         <v>102</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R30" t="s">
@@ -5112,51 +5112,51 @@
         <v>39</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>308/ 2025</v>
       </c>
       <c r="AA30" t="s">
         <v>180</v>
       </c>
       <c r="AB30">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1830</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="AD30" t="s">
         <v>181</v>
       </c>
       <c r="AE30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="AF30">
         <v>500</v>
       </c>
       <c r="AG30">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1500</v>
       </c>
       <c r="AH30">
         <v>22</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ30">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1500</v>
       </c>
       <c r="AK30">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>330</v>
       </c>
       <c r="AL30" t="s">
@@ -5166,11 +5166,11 @@
         <v>183</v>
       </c>
       <c r="AN30" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO30">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1830</v>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
         <v>49</v>
       </c>
       <c r="E31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>309</v>
       </c>
       <c r="F31" t="s">
@@ -5199,34 +5199,34 @@
         <v>7399333144</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>Neo57 Solutions</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>Corso Dante 88</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>50121</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Firenze</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>Fi</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P31" t="s">
         <v>103</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R31" t="s">
@@ -5251,52 +5251,52 @@
         <v>39</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>309/ 2025</v>
       </c>
       <c r="AA31" t="s">
         <v>180</v>
       </c>
       <c r="AB31">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="AD31" t="s">
         <v>181</v>
       </c>
       <c r="AE31">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF31">
         <v>500</v>
       </c>
       <c r="AG31">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH31">
         <v>22</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ31">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK31">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL31" t="s">
         <v>182</v>
@@ -5305,12 +5305,12 @@
         <v>183</v>
       </c>
       <c r="AN31" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO31">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="32" spans="3:41" x14ac:dyDescent="0.2">
@@ -5353,14 +5353,14 @@
         <v>79</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>IT</v>
       </c>
       <c r="P32" t="s">
         <v>104</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R32" t="s">
@@ -5385,52 +5385,52 @@
         <v>39</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400/ 2025</v>
       </c>
       <c r="AA32" t="s">
         <v>180</v>
       </c>
       <c r="AB32">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AD32" t="s">
         <v>181</v>
       </c>
       <c r="AE32">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>500</v>
       </c>
       <c r="AG32">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH32">
         <v>22</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ32">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK32">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL32" t="s">
         <v>182</v>
@@ -5440,11 +5440,11 @@
       </c>
       <c r="AN32" s="3">
         <f ca="1">TODAY()+60</f>
-        <v>45787</v>
+        <v>45788</v>
       </c>
       <c r="AO32">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="3:41" x14ac:dyDescent="0.2">
@@ -5472,34 +5472,34 @@
         <v>3298624219</v>
       </c>
       <c r="J33" t="str">
-        <f>J32</f>
+        <f t="shared" ref="J33:O33" si="37">J32</f>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K33" t="str">
-        <f>K32</f>
+        <f t="shared" si="37"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L33" t="str">
-        <f>L32</f>
+        <f t="shared" si="37"/>
         <v>10100</v>
       </c>
       <c r="M33" t="str">
-        <f>M32</f>
+        <f t="shared" si="37"/>
         <v>Torino</v>
       </c>
       <c r="N33" t="str">
-        <f>N32</f>
+        <f t="shared" si="37"/>
         <v>TO</v>
       </c>
       <c r="O33" t="str">
-        <f>O32</f>
+        <f t="shared" si="37"/>
         <v>IT</v>
       </c>
       <c r="P33" t="s">
         <v>105</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R33" t="s">
@@ -5524,52 +5524,52 @@
         <v>39</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>401/ 2025</v>
       </c>
       <c r="AA33" t="s">
         <v>180</v>
       </c>
       <c r="AB33">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>401</v>
       </c>
       <c r="AD33" t="s">
         <v>181</v>
       </c>
       <c r="AE33">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>500</v>
       </c>
       <c r="AG33">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH33">
         <v>22</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ33">
         <f ca="1">AG33</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AK33">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL33" t="s">
         <v>182</v>
@@ -5578,12 +5578,12 @@
         <v>183</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO33">
         <f ca="1">AJ33+AK33</f>
-        <v>1830</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="3:41" x14ac:dyDescent="0.2">
@@ -5594,7 +5594,7 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E41" si="34">E33+1</f>
+        <f t="shared" ref="E34:E41" si="38">E33+1</f>
         <v>402</v>
       </c>
       <c r="F34" t="s">
@@ -5611,34 +5611,34 @@
         <v>3298624219</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J41" si="35">J33</f>
+        <f t="shared" ref="J34:J41" si="39">J33</f>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K41" si="36">K33</f>
+        <f t="shared" ref="K34:K41" si="40">K33</f>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ref="L34:L41" si="37">L33</f>
+        <f t="shared" ref="L34:L41" si="41">L33</f>
         <v>10100</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ref="M34:M41" si="38">M33</f>
+        <f t="shared" ref="M34:M41" si="42">M33</f>
         <v>Torino</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ref="N34:N41" si="39">N33</f>
+        <f t="shared" ref="N34:N41" si="43">N33</f>
         <v>TO</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ref="O34:O41" si="40">O33</f>
+        <f t="shared" ref="O34:O41" si="44">O33</f>
         <v>IT</v>
       </c>
       <c r="P34" t="s">
         <v>106</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R34" t="s">
@@ -5663,52 +5663,52 @@
         <v>39</v>
       </c>
       <c r="Y34" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>402/ 2025</v>
       </c>
       <c r="AA34" t="s">
         <v>180</v>
       </c>
       <c r="AB34">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>402</v>
       </c>
       <c r="AD34" t="s">
         <v>181</v>
       </c>
       <c r="AE34">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF34">
         <v>500</v>
       </c>
       <c r="AG34">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH34">
         <v>22</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ34">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK34">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL34" t="s">
         <v>182</v>
@@ -5717,12 +5717,12 @@
         <v>183</v>
       </c>
       <c r="AN34" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO34">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="35" spans="3:41" x14ac:dyDescent="0.2">
@@ -5733,7 +5733,7 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>403</v>
       </c>
       <c r="F35" t="s">
@@ -5750,34 +5750,34 @@
         <v>3298624219</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P35" t="s">
         <v>107</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R35" t="s">
@@ -5802,11 +5802,11 @@
         <v>39</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>403/ 2025</v>
       </c>
       <c r="AA35" t="s">
@@ -5814,40 +5814,40 @@
       </c>
       <c r="AB35">
         <f ca="1">AO35</f>
-        <v>3050</v>
+        <v>610</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>403</v>
       </c>
       <c r="AD35" t="s">
         <v>181</v>
       </c>
       <c r="AE35">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>500</v>
       </c>
       <c r="AG35">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH35">
         <v>22</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ35">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK35">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL35" t="s">
         <v>182</v>
@@ -5856,12 +5856,12 @@
         <v>183</v>
       </c>
       <c r="AN35" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO35">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="3:41" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
         <v>50</v>
       </c>
       <c r="E36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>404</v>
       </c>
       <c r="F36" t="s">
@@ -5889,34 +5889,34 @@
         <v>3298624219</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P36" t="s">
         <v>108</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R36" t="s">
@@ -5941,52 +5941,52 @@
         <v>39</v>
       </c>
       <c r="Y36" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>404/ 2025</v>
       </c>
       <c r="AA36" t="s">
         <v>180</v>
       </c>
       <c r="AB36">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="AD36" t="s">
         <v>181</v>
       </c>
       <c r="AE36">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF36">
         <v>500</v>
       </c>
       <c r="AG36">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH36">
         <v>22</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ36">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK36">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL36" t="s">
         <v>182</v>
@@ -5995,12 +5995,12 @@
         <v>183</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO36">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="37" spans="3:41" x14ac:dyDescent="0.2">
@@ -6011,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>405</v>
       </c>
       <c r="F37" t="s">
@@ -6028,34 +6028,34 @@
         <v>3298624219</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P37" t="s">
         <v>109</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R37" t="s">
@@ -6080,52 +6080,52 @@
         <v>39</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405/ 2025</v>
       </c>
       <c r="AA37" t="s">
         <v>180</v>
       </c>
       <c r="AB37">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="AD37" t="s">
         <v>181</v>
       </c>
       <c r="AE37">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF37">
         <v>500</v>
       </c>
       <c r="AG37">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH37">
         <v>22</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ37">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK37">
         <f ca="1">AJ37*AI37%</f>
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="AL37" t="s">
         <v>182</v>
@@ -6134,12 +6134,12 @@
         <v>183</v>
       </c>
       <c r="AN37" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO37">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="38" spans="3:41" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>50</v>
       </c>
       <c r="E38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>406</v>
       </c>
       <c r="F38" t="s">
@@ -6167,34 +6167,34 @@
         <v>3298624219</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P38" t="s">
         <v>110</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R38" t="s">
@@ -6219,52 +6219,52 @@
         <v>39</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>406/ 2025</v>
       </c>
       <c r="AA38" t="s">
         <v>180</v>
       </c>
       <c r="AB38">
-        <f t="shared" ca="1" si="3"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>406</v>
       </c>
       <c r="AD38" t="s">
         <v>181</v>
       </c>
       <c r="AE38">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF38">
         <v>500</v>
       </c>
       <c r="AG38">
-        <f t="shared" ca="1" si="6"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH38">
         <v>22</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ38">
-        <f t="shared" ca="1" si="8"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK38">
-        <f t="shared" ca="1" si="9"/>
-        <v>220</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL38" t="s">
         <v>182</v>
@@ -6273,12 +6273,12 @@
         <v>183</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO38">
-        <f t="shared" ca="1" si="11"/>
-        <v>1220</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="39" spans="3:41" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>407</v>
       </c>
       <c r="F39" t="s">
@@ -6306,34 +6306,34 @@
         <v>3298624219</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P39" t="s">
         <v>111</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R39" t="s">
@@ -6358,22 +6358,22 @@
         <v>39</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>407/ 2025</v>
       </c>
       <c r="AA39" t="s">
         <v>180</v>
       </c>
       <c r="AB39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1220</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407</v>
       </c>
       <c r="AD39" t="s">
@@ -6387,22 +6387,22 @@
         <v>500</v>
       </c>
       <c r="AG39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1000</v>
       </c>
       <c r="AH39">
         <v>22</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ39">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1000</v>
       </c>
       <c r="AK39">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>220</v>
       </c>
       <c r="AL39" t="s">
@@ -6412,11 +6412,11 @@
         <v>183</v>
       </c>
       <c r="AN39" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO39">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1220</v>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
         <v>50</v>
       </c>
       <c r="E40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>408</v>
       </c>
       <c r="F40" t="s">
@@ -6445,34 +6445,34 @@
         <v>3298624219</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P40" t="s">
         <v>112</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R40" t="s">
@@ -6497,52 +6497,52 @@
         <v>39</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>408/ 2025</v>
       </c>
       <c r="AA40" t="s">
         <v>180</v>
       </c>
       <c r="AB40">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="AD40" t="s">
         <v>181</v>
       </c>
       <c r="AE40">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF40">
         <v>500</v>
       </c>
       <c r="AG40">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH40">
         <v>22</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ40">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK40">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL40" t="s">
         <v>182</v>
@@ -6551,12 +6551,12 @@
         <v>183</v>
       </c>
       <c r="AN40" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO40">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>50</v>
       </c>
       <c r="E41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>409</v>
       </c>
       <c r="F41" t="s">
@@ -6584,34 +6584,34 @@
         <v>3298624219</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>Quantum62 Systems</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>Viale Verdi  120</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>10100</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Torino</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>TO</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>IT</v>
       </c>
       <c r="P41" t="s">
         <v>113</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R41" t="s">
@@ -6636,52 +6636,52 @@
         <v>39</v>
       </c>
       <c r="Y41" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>409/ 2025</v>
       </c>
       <c r="AA41" t="s">
         <v>180</v>
       </c>
       <c r="AB41">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>409</v>
       </c>
       <c r="AD41" t="s">
         <v>181</v>
       </c>
       <c r="AE41">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF41">
         <v>500</v>
       </c>
       <c r="AG41">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH41">
         <v>22</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ41">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK41">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL41" t="s">
         <v>182</v>
@@ -6690,12 +6690,12 @@
         <v>183</v>
       </c>
       <c r="AN41" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO41">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="42" spans="3:41" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
         <v>114</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R42" t="s">
@@ -6769,36 +6769,36 @@
         <v>39</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500/ 2025</v>
       </c>
       <c r="AA42" t="s">
         <v>180</v>
       </c>
       <c r="AB42">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1220</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="AD42" t="s">
         <v>181</v>
       </c>
       <c r="AE42">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="AF42">
         <v>500</v>
       </c>
       <c r="AG42">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1000</v>
       </c>
       <c r="AH42">
@@ -6809,11 +6809,11 @@
         <v>22</v>
       </c>
       <c r="AJ42">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1000</v>
       </c>
       <c r="AK42">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v>220</v>
       </c>
       <c r="AL42" t="s">
@@ -6823,11 +6823,11 @@
         <v>183</v>
       </c>
       <c r="AN42" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO42">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1220</v>
       </c>
     </row>
@@ -6856,34 +6856,34 @@
         <v>8333741271</v>
       </c>
       <c r="J43" t="str">
-        <f>J42</f>
+        <f t="shared" ref="J43:O43" si="45">J42</f>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K43" t="str">
-        <f>K42</f>
+        <f t="shared" si="45"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L43" t="str">
-        <f>L42</f>
+        <f t="shared" si="45"/>
         <v>80100</v>
       </c>
       <c r="M43" t="str">
-        <f>M42</f>
+        <f t="shared" si="45"/>
         <v>Napoli</v>
       </c>
       <c r="N43" t="str">
-        <f>N42</f>
+        <f t="shared" si="45"/>
         <v>NA</v>
       </c>
       <c r="O43" t="str">
-        <f>O42</f>
+        <f t="shared" si="45"/>
         <v>IT</v>
       </c>
       <c r="P43" t="s">
         <v>115</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R43" t="s">
@@ -6909,51 +6909,51 @@
       </c>
       <c r="Y43" s="3">
         <f ca="1">TODAY()</f>
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="Z43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>501/ 2025</v>
       </c>
       <c r="AA43" t="s">
         <v>180</v>
       </c>
       <c r="AB43">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>501</v>
       </c>
       <c r="AD43" t="s">
         <v>181</v>
       </c>
       <c r="AE43">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>500</v>
       </c>
       <c r="AG43">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH43">
         <v>22</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ43">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK43">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL43" t="s">
         <v>182</v>
@@ -6962,12 +6962,12 @@
         <v>183</v>
       </c>
       <c r="AN43" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO43">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="3:41" x14ac:dyDescent="0.2">
@@ -6978,7 +6978,7 @@
         <v>51</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E51" si="41">E43+1</f>
+        <f t="shared" ref="E44:E51" si="46">E43+1</f>
         <v>502</v>
       </c>
       <c r="F44" t="s">
@@ -6995,34 +6995,34 @@
         <v>8333741271</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44:J51" si="42">J43</f>
+        <f t="shared" ref="J44:J51" si="47">J43</f>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" ref="K44:K51" si="43">K43</f>
+        <f t="shared" ref="K44:K51" si="48">K43</f>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:L51" si="44">L43</f>
+        <f t="shared" ref="L44:L51" si="49">L43</f>
         <v>80100</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ref="M44:M51" si="45">M43</f>
+        <f t="shared" ref="M44:M51" si="50">M43</f>
         <v>Napoli</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" ref="N44:N51" si="46">N43</f>
+        <f t="shared" ref="N44:N51" si="51">N43</f>
         <v>NA</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" ref="O44:O51" si="47">O43</f>
+        <f t="shared" ref="O44:O51" si="52">O43</f>
         <v>IT</v>
       </c>
       <c r="P44" t="s">
         <v>116</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R44" t="s">
@@ -7047,52 +7047,52 @@
         <v>39</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>502/ 2025</v>
       </c>
       <c r="AA44" t="s">
         <v>180</v>
       </c>
       <c r="AB44">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>502</v>
       </c>
       <c r="AD44" t="s">
         <v>181</v>
       </c>
       <c r="AE44">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF44">
         <v>500</v>
       </c>
       <c r="AG44">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH44">
         <v>22</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ44">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK44">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL44" t="s">
         <v>182</v>
@@ -7101,12 +7101,12 @@
         <v>183</v>
       </c>
       <c r="AN44" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO44">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="45" spans="3:41" x14ac:dyDescent="0.2">
@@ -7117,7 +7117,7 @@
         <v>51</v>
       </c>
       <c r="E45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>503</v>
       </c>
       <c r="F45" t="s">
@@ -7134,34 +7134,34 @@
         <v>8333741271</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P45" t="s">
         <v>117</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R45" t="s">
@@ -7186,52 +7186,52 @@
         <v>39</v>
       </c>
       <c r="Y45" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>503/ 2025</v>
       </c>
       <c r="AA45" t="s">
         <v>180</v>
       </c>
       <c r="AB45">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>503</v>
       </c>
       <c r="AD45" t="s">
         <v>181</v>
       </c>
       <c r="AE45">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF45">
         <v>500</v>
       </c>
       <c r="AG45">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH45">
         <v>22</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ45">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK45">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL45" t="s">
         <v>182</v>
@@ -7240,12 +7240,12 @@
         <v>183</v>
       </c>
       <c r="AN45" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO45">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="46" spans="3:41" x14ac:dyDescent="0.2">
@@ -7256,7 +7256,7 @@
         <v>51</v>
       </c>
       <c r="E46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>504</v>
       </c>
       <c r="F46" t="s">
@@ -7273,34 +7273,34 @@
         <v>8333741271</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P46" t="s">
         <v>118</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R46" t="s">
@@ -7325,52 +7325,52 @@
         <v>39</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>504/ 2025</v>
       </c>
       <c r="AA46" t="s">
         <v>180</v>
       </c>
       <c r="AB46">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1830</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>504</v>
       </c>
       <c r="AD46" t="s">
         <v>181</v>
       </c>
       <c r="AE46">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="AF46">
         <v>500</v>
       </c>
       <c r="AG46">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1500</v>
       </c>
       <c r="AH46">
         <v>22</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ46">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1500</v>
       </c>
       <c r="AK46">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>330</v>
       </c>
       <c r="AL46" t="s">
         <v>182</v>
@@ -7379,12 +7379,12 @@
         <v>183</v>
       </c>
       <c r="AN46" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO46">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1830</v>
       </c>
     </row>
     <row r="47" spans="3:41" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
         <v>51</v>
       </c>
       <c r="E47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>505</v>
       </c>
       <c r="F47" t="s">
@@ -7412,34 +7412,34 @@
         <v>8333741271</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P47" t="s">
         <v>119</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R47" t="s">
@@ -7464,8 +7464,8 @@
         <v>39</v>
       </c>
       <c r="Y47" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z47" t="str">
         <f>_xlfn.CONCAT(E47, "/ ", "2025")</f>
@@ -7475,41 +7475,41 @@
         <v>180</v>
       </c>
       <c r="AB47">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2440</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>505</v>
       </c>
       <c r="AD47" t="s">
         <v>181</v>
       </c>
       <c r="AE47">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="AF47">
         <v>500</v>
       </c>
       <c r="AG47">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2000</v>
       </c>
       <c r="AH47">
         <v>22</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ47">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2000</v>
       </c>
       <c r="AK47">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>440</v>
       </c>
       <c r="AL47" t="s">
         <v>182</v>
@@ -7518,12 +7518,12 @@
         <v>183</v>
       </c>
       <c r="AN47" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO47">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="48" spans="3:41" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>51</v>
       </c>
       <c r="E48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>506</v>
       </c>
       <c r="F48" t="s">
@@ -7551,27 +7551,27 @@
         <v>8333741271</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P48" t="s">
@@ -7603,52 +7603,52 @@
         <v>39</v>
       </c>
       <c r="Y48" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>506/ 2025</v>
       </c>
       <c r="AA48" t="s">
         <v>180</v>
       </c>
       <c r="AB48">
-        <f t="shared" ca="1" si="3"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1220</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>506</v>
       </c>
       <c r="AD48" t="s">
         <v>181</v>
       </c>
       <c r="AE48">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF48">
         <v>500</v>
       </c>
       <c r="AG48">
-        <f t="shared" ca="1" si="6"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1000</v>
       </c>
       <c r="AH48">
         <v>22</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ48">
-        <f t="shared" ca="1" si="8"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1000</v>
       </c>
       <c r="AK48">
-        <f t="shared" ca="1" si="9"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>220</v>
       </c>
       <c r="AL48" t="s">
         <v>182</v>
@@ -7657,12 +7657,12 @@
         <v>183</v>
       </c>
       <c r="AN48" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO48">
-        <f t="shared" ca="1" si="11"/>
-        <v>610</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1220</v>
       </c>
     </row>
     <row r="49" spans="3:41" x14ac:dyDescent="0.2">
@@ -7673,7 +7673,7 @@
         <v>51</v>
       </c>
       <c r="E49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>507</v>
       </c>
       <c r="F49" t="s">
@@ -7690,34 +7690,34 @@
         <v>8333741271</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P49" t="s">
         <v>121</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R49" t="s">
@@ -7742,52 +7742,52 @@
         <v>39</v>
       </c>
       <c r="Y49" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>507/ 2025</v>
       </c>
       <c r="AA49" t="s">
         <v>180</v>
       </c>
       <c r="AB49">
-        <f t="shared" ca="1" si="3"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3050</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>507</v>
       </c>
       <c r="AD49" t="s">
         <v>181</v>
       </c>
       <c r="AE49">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
       </c>
       <c r="AF49">
         <v>500</v>
       </c>
       <c r="AG49">
-        <f t="shared" ca="1" si="6"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2500</v>
       </c>
       <c r="AH49">
         <v>22</v>
       </c>
       <c r="AI49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ49">
-        <f t="shared" ca="1" si="8"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2500</v>
       </c>
       <c r="AK49">
-        <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>550</v>
       </c>
       <c r="AL49" t="s">
         <v>182</v>
@@ -7796,12 +7796,12 @@
         <v>183</v>
       </c>
       <c r="AN49" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO49">
-        <f t="shared" ca="1" si="11"/>
-        <v>1830</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3050</v>
       </c>
     </row>
     <row r="50" spans="3:41" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
         <v>51</v>
       </c>
       <c r="E50">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>508</v>
       </c>
       <c r="F50" t="s">
@@ -7829,34 +7829,34 @@
         <v>8333741271</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P50" t="s">
         <v>122</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Hosting Company</v>
       </c>
       <c r="R50" t="s">
@@ -7881,52 +7881,52 @@
         <v>39</v>
       </c>
       <c r="Y50" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>508/ 2025</v>
       </c>
       <c r="AA50" t="s">
         <v>180</v>
       </c>
       <c r="AB50">
-        <f t="shared" ca="1" si="3"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>610</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>508</v>
       </c>
       <c r="AD50" t="s">
         <v>181</v>
       </c>
       <c r="AE50">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>500</v>
       </c>
       <c r="AG50">
-        <f t="shared" ca="1" si="6"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>500</v>
       </c>
       <c r="AH50">
         <v>22</v>
       </c>
       <c r="AI50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ50">
-        <f t="shared" ca="1" si="8"/>
-        <v>2500</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>500</v>
       </c>
       <c r="AK50">
-        <f t="shared" ca="1" si="9"/>
-        <v>550</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>110</v>
       </c>
       <c r="AL50" t="s">
         <v>182</v>
@@ -7935,12 +7935,12 @@
         <v>183</v>
       </c>
       <c r="AN50" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO50">
-        <f t="shared" ca="1" si="11"/>
-        <v>3050</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="3:41" x14ac:dyDescent="0.2">
@@ -7951,7 +7951,7 @@
         <v>51</v>
       </c>
       <c r="E51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>509</v>
       </c>
       <c r="F51" t="s">
@@ -7968,34 +7968,34 @@
         <v>8333741271</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Fusion42 Corp</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>Largo Mazzini  35</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>80100</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>Napoli</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>NA</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>IT</v>
       </c>
       <c r="P51" t="s">
         <v>123</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ref="Q51" si="48">Q50</f>
+        <f t="shared" ref="Q51" si="53">Q50</f>
         <v>Hosting Company</v>
       </c>
       <c r="R51" t="s">
@@ -8020,52 +8020,52 @@
         <v>39</v>
       </c>
       <c r="Y51" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45727</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45728</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" ref="Z51" si="49">_xlfn.CONCAT(E51, "/ ", "2025")</f>
+        <f t="shared" ref="Z51" si="54">_xlfn.CONCAT(E51, "/ ", "2025")</f>
         <v>509/ 2025</v>
       </c>
       <c r="AA51" t="s">
         <v>180</v>
       </c>
       <c r="AB51">
-        <f t="shared" ref="AB51" ca="1" si="50">AO51</f>
-        <v>3050</v>
+        <f t="shared" ref="AB51" ca="1" si="55">AO51</f>
+        <v>1220</v>
       </c>
       <c r="AC51">
-        <f t="shared" ref="AC51" si="51">E51</f>
+        <f t="shared" ref="AC51" si="56">E51</f>
         <v>509</v>
       </c>
       <c r="AD51" t="s">
         <v>181</v>
       </c>
       <c r="AE51">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="AF51">
         <v>500</v>
       </c>
       <c r="AG51">
-        <f t="shared" ref="AG51" ca="1" si="52">AE51*AF51</f>
-        <v>2500</v>
+        <f t="shared" ref="AG51" ca="1" si="57">AE51*AF51</f>
+        <v>1000</v>
       </c>
       <c r="AH51">
         <v>22</v>
       </c>
       <c r="AI51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AJ51">
-        <f t="shared" ref="AJ51" ca="1" si="53">AG51</f>
-        <v>2500</v>
+        <f t="shared" ref="AJ51" ca="1" si="58">AG51</f>
+        <v>1000</v>
       </c>
       <c r="AK51">
-        <f t="shared" ref="AK51" ca="1" si="54">AJ51*AI51%</f>
-        <v>550</v>
+        <f t="shared" ref="AK51" ca="1" si="59">AJ51*AI51%</f>
+        <v>220</v>
       </c>
       <c r="AL51" t="s">
         <v>40</v>
@@ -8074,12 +8074,12 @@
         <v>187</v>
       </c>
       <c r="AN51" s="3">
-        <f t="shared" ca="1" si="10"/>
-        <v>45787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45788</v>
       </c>
       <c r="AO51">
-        <f t="shared" ref="AO51" ca="1" si="55">AJ51+AK51</f>
-        <v>3050</v>
+        <f t="shared" ref="AO51" ca="1" si="60">AJ51+AK51</f>
+        <v>1220</v>
       </c>
     </row>
     <row r="52" spans="3:41" x14ac:dyDescent="0.2">
@@ -8094,13 +8094,13 @@
  TEXT(RANDBETWEEN(10, 99), "00") &amp;
  " " &amp;
  CHOOSE(RANDBETWEEN(1,5), "Tech", "Corp", "Solutions", "Media", "Systems")</f>
-        <v>Innova63 Systems</v>
+        <v>Neo81 Corp</v>
       </c>
     </row>
     <row r="54" spans="3:41" x14ac:dyDescent="0.2">
       <c r="D54" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1000000, 9999999), "0000000") &amp; TEXT(RANDBETWEEN(100, 999), "000")</f>
-        <v>6816723962</v>
+        <v>4880610238</v>
       </c>
     </row>
   </sheetData>
